--- a/7rmartsupermarket/src/main/resources/Testdata.xlsx
+++ b/7rmartsupermarket/src/main/resources/Testdata.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Adminuser_Test" sheetId="2" r:id="rId2"/>
     <sheet name="Searchuser_Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Category_Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Manage_Contact" sheetId="5" r:id="rId5"/>
+    <sheet name="Manage_news" sheetId="6" r:id="rId6"/>
+    <sheet name="Manage_Footer" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>admin</t>
   </si>
@@ -55,6 +59,48 @@
   </si>
   <si>
     <t>12aadmin</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>deliverytime</t>
+  </si>
+  <si>
+    <t>deliverycharge</t>
+  </si>
+  <si>
+    <t>j@gmail.com</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnop</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>Obsqura Kochi</t>
   </si>
 </sst>
 </file>
@@ -391,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,4 +557,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>124563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4512345892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartsupermarket/src/main/resources/Testdata.xlsx
+++ b/7rmartsupermarket/src/main/resources/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>admin</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Obsqura Kochi</t>
+  </si>
+  <si>
+    <t>JEWELLERY</t>
   </si>
 </sst>
 </file>
@@ -561,13 +564,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -577,6 +583,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
